--- a/examples/XlsxWriterExamples.xlsx
+++ b/examples/XlsxWriterExamples.xlsx
@@ -21,13 +21,13 @@
     <t>Mon</t>
   </si>
   <si>
+    <t>Thur</t>
+  </si>
+  <si>
     <t>Tues</t>
   </si>
   <si>
     <t>Weds</t>
-  </si>
-  <si>
-    <t>Thur</t>
   </si>
   <si>
     <t>Breakfast</t>
@@ -209,7 +209,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Tues</c:v>
+            <c:v>Thur</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -238,16 +238,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,6 +256,54 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Tues</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar'!A2:A5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Breakfast</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lunch</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dinner</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Midnight Snack</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar'!D2:D5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Weds</c:v>
           </c:tx>
@@ -281,7 +329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Bar'!D2:D5</c:f>
+              <c:f>'Bar'!E2:E5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -296,54 +344,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Thur</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Bar'!A2:A5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Breakfast</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Lunch</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Dinner</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Midnight Snack</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Bar'!E2:E5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,34 +512,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.993618921409407</c:v>
+                  <c:v>8.837375396787754</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.784202879162196</c:v>
+                  <c:v>0.7271193118825925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.141861947341638</c:v>
+                  <c:v>1.050018877477071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.861427303178972</c:v>
+                  <c:v>3.657495025471866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.769829676246228</c:v>
+                  <c:v>4.083511191696787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9919322537166675</c:v>
+                  <c:v>5.347005958038467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.923679913548229</c:v>
+                  <c:v>0.3833107503686928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.004254331451351</c:v>
+                  <c:v>0.05319788249747659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.970241793967226</c:v>
+                  <c:v>2.829913771517538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.841277825154889</c:v>
+                  <c:v>8.11385672163971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,34 +602,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.954007722324453</c:v>
+                  <c:v>0.5085210235409798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.92938225153681</c:v>
+                  <c:v>0.3690508165012485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.366313646696129</c:v>
+                  <c:v>4.65857261671669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.003661260204664</c:v>
+                  <c:v>2.547622341388292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2044364514869379</c:v>
+                  <c:v>9.953610407829043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7837790629393904</c:v>
+                  <c:v>8.739250224005314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.042790176955267</c:v>
+                  <c:v>1.116680432117803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.47804864848389</c:v>
+                  <c:v>8.455868352194392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.788786893846535</c:v>
+                  <c:v>6.090882931078225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.448527409183114</c:v>
+                  <c:v>9.450386262209836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1097,13 +1097,13 @@
         <v>15</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1114,13 +1114,13 @@
         <v>20</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>22</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1131,13 +1131,13 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1148,13 +1148,13 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>8</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.993618921409407</v>
+        <v>8.837375396787754</v>
       </c>
       <c r="C2">
-        <v>7.954007722324453</v>
+        <v>0.5085210235409798</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1195,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.784202879162196</v>
+        <v>0.7271193118825925</v>
       </c>
       <c r="C3">
-        <v>2.92938225153681</v>
+        <v>0.3690508165012485</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1206,10 +1206,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.141861947341638</v>
+        <v>1.050018877477071</v>
       </c>
       <c r="C4">
-        <v>3.366313646696129</v>
+        <v>4.65857261671669</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1217,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.861427303178972</v>
+        <v>3.657495025471866</v>
       </c>
       <c r="C5">
-        <v>2.003661260204664</v>
+        <v>2.547622341388292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1228,10 +1228,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.769829676246228</v>
+        <v>4.083511191696787</v>
       </c>
       <c r="C6">
-        <v>0.2044364514869379</v>
+        <v>9.953610407829043</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1239,10 +1239,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9919322537166675</v>
+        <v>5.347005958038467</v>
       </c>
       <c r="C7">
-        <v>0.7837790629393904</v>
+        <v>8.739250224005314</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1250,10 +1250,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.923679913548229</v>
+        <v>0.3833107503686928</v>
       </c>
       <c r="C8">
-        <v>3.042790176955267</v>
+        <v>1.116680432117803</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1261,10 +1261,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.004254331451351</v>
+        <v>0.05319788249747659</v>
       </c>
       <c r="C9">
-        <v>6.47804864848389</v>
+        <v>8.455868352194392</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1272,10 +1272,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.970241793967226</v>
+        <v>2.829913771517538</v>
       </c>
       <c r="C10">
-        <v>4.788786893846535</v>
+        <v>6.090882931078225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1283,10 +1283,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.841277825154889</v>
+        <v>8.11385672163971</v>
       </c>
       <c r="C11">
-        <v>5.448527409183114</v>
+        <v>9.450386262209836</v>
       </c>
     </row>
   </sheetData>
@@ -1316,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>7.993618921409407</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7.954007722324453</v>
+        <v>8.837375396787754</v>
+      </c>
+      <c r="C2">
+        <v>0.5085210235409798</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>9.784202879162196</v>
+      <c r="B3">
+        <v>0.7271193118825925</v>
       </c>
       <c r="C3">
-        <v>2.92938225153681</v>
+        <v>0.3690508165012485</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1338,10 +1338,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.141861947341638</v>
+        <v>1.050018877477071</v>
       </c>
       <c r="C4">
-        <v>3.366313646696129</v>
+        <v>4.65857261671669</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1349,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.861427303178972</v>
+        <v>3.657495025471866</v>
       </c>
       <c r="C5">
-        <v>2.003661260204664</v>
+        <v>2.547622341388292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1360,21 +1360,21 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.769829676246228</v>
-      </c>
-      <c r="C6">
-        <v>0.2044364514869379</v>
+        <v>4.083511191696787</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.953610407829043</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.9919322537166675</v>
-      </c>
-      <c r="C7">
-        <v>0.7837790629393904</v>
+      <c r="B7" s="2">
+        <v>5.347005958038467</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.739250224005314</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1382,43 +1382,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.923679913548229</v>
+        <v>0.3833107503686928</v>
       </c>
       <c r="C8">
-        <v>3.042790176955267</v>
+        <v>1.116680432117803</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>6.004254331451351</v>
+      <c r="B9">
+        <v>0.05319788249747659</v>
       </c>
       <c r="C9" s="2">
-        <v>6.47804864848389</v>
+        <v>8.455868352194392</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>8.970241793967226</v>
-      </c>
-      <c r="C10">
-        <v>4.788786893846535</v>
+      <c r="B10">
+        <v>2.829913771517538</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.090882931078225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>4.841277825154889</v>
+      <c r="B11" s="2">
+        <v>8.11385672163971</v>
       </c>
       <c r="C11" s="2">
-        <v>5.448527409183114</v>
+        <v>9.450386262209836</v>
       </c>
     </row>
     <row r="13" spans="1:3">

--- a/examples/XlsxWriterExamples.xlsx
+++ b/examples/XlsxWriterExamples.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Bar" sheetId="1" r:id="rId1"/>
     <sheet name="Scatter" sheetId="2" r:id="rId2"/>
     <sheet name="Highlighted" sheetId="3" r:id="rId3"/>
+    <sheet name="Conditional Formatting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Mon</t>
   </si>
@@ -512,34 +513,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.837375396787754</c:v>
+                  <c:v>8.252643144094897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7271193118825925</c:v>
+                  <c:v>6.68588770720516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.050018877477071</c:v>
+                  <c:v>5.863923788494891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.657495025471866</c:v>
+                  <c:v>0.976589030820818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.083511191696787</c:v>
+                  <c:v>6.713361507575395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.347005958038467</c:v>
+                  <c:v>0.5099811919552821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3833107503686928</c:v>
+                  <c:v>2.891980130967887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05319788249747659</c:v>
+                  <c:v>9.495778467361443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.829913771517538</c:v>
+                  <c:v>9.735840553392082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.11385672163971</c:v>
+                  <c:v>4.223498224820437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,34 +603,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5085210235409798</c:v>
+                  <c:v>5.405017945584013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3690508165012485</c:v>
+                  <c:v>9.925574752198022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.65857261671669</c:v>
+                  <c:v>3.189183188888812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.547622341388292</c:v>
+                  <c:v>3.171506025267213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.953610407829043</c:v>
+                  <c:v>2.976258459102171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.739250224005314</c:v>
+                  <c:v>0.01742846552266974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.116680432117803</c:v>
+                  <c:v>8.653387117681449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.455868352194392</c:v>
+                  <c:v>9.931725249980042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.090882931078225</c:v>
+                  <c:v>6.241923081743693</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.450386262209836</c:v>
+                  <c:v>8.485493146619246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.837375396787754</v>
+        <v>8.252643144094897</v>
       </c>
       <c r="C2">
-        <v>0.5085210235409798</v>
+        <v>5.405017945584013</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1195,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7271193118825925</v>
+        <v>6.68588770720516</v>
       </c>
       <c r="C3">
-        <v>0.3690508165012485</v>
+        <v>9.925574752198022</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1206,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.050018877477071</v>
+        <v>5.863923788494891</v>
       </c>
       <c r="C4">
-        <v>4.65857261671669</v>
+        <v>3.189183188888812</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1217,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.657495025471866</v>
+        <v>0.976589030820818</v>
       </c>
       <c r="C5">
-        <v>2.547622341388292</v>
+        <v>3.171506025267213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1228,10 +1229,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.083511191696787</v>
+        <v>6.713361507575395</v>
       </c>
       <c r="C6">
-        <v>9.953610407829043</v>
+        <v>2.976258459102171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1239,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.347005958038467</v>
+        <v>0.5099811919552821</v>
       </c>
       <c r="C7">
-        <v>8.739250224005314</v>
+        <v>0.01742846552266974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1250,10 +1251,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3833107503686928</v>
+        <v>2.891980130967887</v>
       </c>
       <c r="C8">
-        <v>1.116680432117803</v>
+        <v>8.653387117681449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1261,10 +1262,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05319788249747659</v>
+        <v>9.495778467361443</v>
       </c>
       <c r="C9">
-        <v>8.455868352194392</v>
+        <v>9.931725249980042</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1272,10 +1273,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.829913771517538</v>
+        <v>9.735840553392082</v>
       </c>
       <c r="C10">
-        <v>6.090882931078225</v>
+        <v>6.241923081743693</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1283,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.11385672163971</v>
+        <v>4.223498224820437</v>
       </c>
       <c r="C11">
-        <v>9.450386262209836</v>
+        <v>8.485493146619246</v>
       </c>
     </row>
   </sheetData>
@@ -1316,32 +1317,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>8.837375396787754</v>
-      </c>
-      <c r="C2">
-        <v>0.5085210235409798</v>
+        <v>8.252643144094897</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.405017945584013</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.7271193118825925</v>
-      </c>
-      <c r="C3">
-        <v>0.3690508165012485</v>
+      <c r="B3" s="2">
+        <v>6.68588770720516</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.925574752198022</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.050018877477071</v>
+      <c r="B4" s="2">
+        <v>5.863923788494891</v>
       </c>
       <c r="C4">
-        <v>4.65857261671669</v>
+        <v>3.189183188888812</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1349,32 +1350,32 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.657495025471866</v>
+        <v>0.976589030820818</v>
       </c>
       <c r="C5">
-        <v>2.547622341388292</v>
+        <v>3.171506025267213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>4.083511191696787</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.953610407829043</v>
+      <c r="B6" s="2">
+        <v>6.713361507575395</v>
+      </c>
+      <c r="C6">
+        <v>2.976258459102171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>5.347005958038467</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.739250224005314</v>
+      <c r="B7">
+        <v>0.5099811919552821</v>
+      </c>
+      <c r="C7">
+        <v>0.01742846552266974</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1382,43 +1383,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3833107503686928</v>
-      </c>
-      <c r="C8">
-        <v>1.116680432117803</v>
+        <v>2.891980130967887</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.653387117681449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.05319788249747659</v>
+      <c r="B9" s="2">
+        <v>9.495778467361443</v>
       </c>
       <c r="C9" s="2">
-        <v>8.455868352194392</v>
+        <v>9.931725249980042</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>2.829913771517538</v>
+      <c r="B10" s="2">
+        <v>9.735840553392082</v>
       </c>
       <c r="C10" s="2">
-        <v>6.090882931078225</v>
+        <v>6.241923081743693</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>8.11385672163971</v>
+      <c r="B11">
+        <v>4.223498224820437</v>
       </c>
       <c r="C11" s="2">
-        <v>9.450386262209836</v>
+        <v>8.485493146619246</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1429,4 +1430,147 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.252643144094897</v>
+      </c>
+      <c r="C2">
+        <v>5.405017945584013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.68588770720516</v>
+      </c>
+      <c r="C3">
+        <v>9.925574752198022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.863923788494891</v>
+      </c>
+      <c r="C4">
+        <v>3.189183188888812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.976589030820818</v>
+      </c>
+      <c r="C5">
+        <v>3.171506025267213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6.713361507575395</v>
+      </c>
+      <c r="C6">
+        <v>2.976258459102171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.5099811919552821</v>
+      </c>
+      <c r="C7">
+        <v>0.01742846552266974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.891980130967887</v>
+      </c>
+      <c r="C8">
+        <v>8.653387117681449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9.495778467361443</v>
+      </c>
+      <c r="C9">
+        <v>9.931725249980042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9.735840553392082</v>
+      </c>
+      <c r="C10">
+        <v>6.241923081743693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4.223498224820437</v>
+      </c>
+      <c r="C11">
+        <v>8.485493146619246</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.0174284655227"/>
+        <cfvo type="num" val="5.66734905896"/>
+        <cfvo type="num" val="9.93172524998"/>
+        <color rgb="FF008000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>